--- a/assets/import_user/template/template.xlsx
+++ b/assets/import_user/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\labfik\assets\import_user\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4971B6F-BCAC-4F8D-98CE-89904C02A6B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B68F02-2C02-45F1-90D0-C4CB7D3175FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD9C56AF-CBBB-44D1-8857-11C1F2F0CB58}"/>
+    <workbookView xWindow="15756" yWindow="708" windowWidth="12276" windowHeight="8964" xr2:uid="{AD9C56AF-CBBB-44D1-8857-11C1F2F0CB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,60 +33,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>badrus</t>
-  </si>
-  <si>
-    <t>asep</t>
-  </si>
-  <si>
-    <t>udin</t>
-  </si>
-  <si>
-    <t>badrus@gmail.com</t>
-  </si>
-  <si>
-    <t>asep@gmail.com</t>
-  </si>
-  <si>
-    <t>udin@gmail.com</t>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
-    <t>dosen</t>
-  </si>
-  <si>
-    <t>tes</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>c</t>
+    <t>nama lengkap</t>
+  </si>
+  <si>
+    <t>kode dosen</t>
+  </si>
+  <si>
+    <t>program studi</t>
+  </si>
+  <si>
+    <t>nomor telpon</t>
   </si>
 </sst>
 </file>
@@ -449,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22211F4-2A7C-4822-8B44-9A90BBA5DF87}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,80 +434,42 @@
     <col min="15" max="15" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{BC4A92F1-9498-4962-ABD6-A544EAB16E6B}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{5C62ADCA-07AC-4D9A-9A4E-2E315D032B61}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{0C081231-C99D-43DE-B698-AD657786F375}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>